--- a/data/input_data_US_group3.xlsx
+++ b/data/input_data_US_group3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F51FE-AD97-481C-8124-11D0F539734D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F78EA48-0313-4747-A5F0-D727B6269C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -969,7 +969,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,14 +1006,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="57" t="s">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="57" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="79" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="57" t="s">
         <v>21</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="58" t="s">
         <v>20</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2133,7 +2133,7 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="58" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="69" t="s">
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="69" t="s">
         <v>20</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="69" t="s">
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="69" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="80" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="69" t="s">
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="90"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="69" t="s">
         <v>20</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="80" t="s">
         <v>122</v>
       </c>
       <c r="B20" s="69" t="s">
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="69" t="s">
         <v>21</v>
       </c>
@@ -2786,16 +2786,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2871,7 +2871,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -2930,7 +2930,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
@@ -3044,7 +3044,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
@@ -3101,7 +3101,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
@@ -3215,7 +3215,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
@@ -3329,7 +3329,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="77"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
@@ -3386,7 +3386,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="33" t="s">
         <v>10</v>
       </c>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="33" t="s">
         <v>11</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="33" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="33" t="s">
         <v>13</v>
       </c>
@@ -3671,7 +3671,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="33" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="33" t="s">
         <v>15</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="79" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="57" t="s">
@@ -3844,7 +3844,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="57" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="57" t="s">
         <v>2</v>
       </c>
@@ -3958,7 +3958,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="57" t="s">
         <v>3</v>
       </c>
@@ -4015,7 +4015,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="57" t="s">
         <v>4</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="57" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="57" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="57" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="77"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="57" t="s">
         <v>8</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="57" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4357,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="57" t="s">
         <v>10</v>
       </c>
@@ -4414,7 +4414,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="57" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="57" t="s">
         <v>12</v>
       </c>
@@ -4528,7 +4528,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="57" t="s">
         <v>14</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="57" t="s">
         <v>15</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -4758,7 +4758,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="58" t="s">
         <v>1</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="77"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="58" t="s">
         <v>2</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="58" t="s">
         <v>3</v>
       </c>
@@ -4929,7 +4929,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="58" t="s">
         <v>4</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="58" t="s">
         <v>5</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="58" t="s">
         <v>6</v>
       </c>
@@ -5100,7 +5100,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="58" t="s">
         <v>7</v>
       </c>
@@ -5157,7 +5157,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="58" t="s">
         <v>8</v>
       </c>
@@ -5214,7 +5214,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="77"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="58" t="s">
         <v>9</v>
       </c>
@@ -5271,7 +5271,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="77"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="58" t="s">
         <v>10</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
@@ -5385,7 +5385,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="77"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="58" t="s">
         <v>12</v>
       </c>
@@ -5442,7 +5442,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="77"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="58" t="s">
         <v>13</v>
       </c>
@@ -5499,7 +5499,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="58" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="58" t="s">
         <v>15</v>
       </c>
@@ -5613,7 +5613,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="69" t="s">
@@ -5672,7 +5672,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="77"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="69" t="s">
         <v>1</v>
       </c>
@@ -5729,7 +5729,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="77"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="69" t="s">
         <v>2</v>
       </c>
@@ -5786,7 +5786,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="69" t="s">
         <v>3</v>
       </c>
@@ -5843,7 +5843,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="77"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="69" t="s">
         <v>4</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="69" t="s">
         <v>5</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="77"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="69" t="s">
         <v>6</v>
       </c>
@@ -6014,7 +6014,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="77"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="69" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6071,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="77"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="69" t="s">
         <v>8</v>
       </c>
@@ -6128,7 +6128,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="77"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="69" t="s">
         <v>9</v>
       </c>
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="69" t="s">
         <v>10</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="69" t="s">
         <v>11</v>
       </c>
@@ -6299,7 +6299,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="77"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="69" t="s">
         <v>12</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="77"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="69" t="s">
         <v>13</v>
       </c>
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="69" t="s">
         <v>14</v>
       </c>
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="69" t="s">
         <v>15</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="79" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="69" t="s">
@@ -6586,7 +6586,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="77"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="69" t="s">
         <v>1</v>
       </c>
@@ -6643,7 +6643,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="77"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="69" t="s">
         <v>2</v>
       </c>
@@ -6700,7 +6700,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="69" t="s">
         <v>3</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="77"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="69" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="77"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="69" t="s">
         <v>5</v>
       </c>
@@ -6871,7 +6871,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="77"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="69" t="s">
         <v>6</v>
       </c>
@@ -6928,7 +6928,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="69" t="s">
         <v>7</v>
       </c>
@@ -6985,7 +6985,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="77"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="69" t="s">
         <v>8</v>
       </c>
@@ -7042,7 +7042,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="77"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="69" t="s">
         <v>9</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="77"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="69" t="s">
         <v>10</v>
       </c>
@@ -7156,7 +7156,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="77"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="69" t="s">
         <v>11</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="77"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="69" t="s">
         <v>12</v>
       </c>
@@ -7270,7 +7270,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="77"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="69" t="s">
         <v>13</v>
       </c>
@@ -7327,7 +7327,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="77"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="69" t="s">
         <v>14</v>
       </c>
@@ -7384,7 +7384,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="77"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="69" t="s">
         <v>15</v>
       </c>
@@ -7522,7 +7522,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -7581,7 +7581,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
@@ -7638,7 +7638,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
@@ -7695,7 +7695,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="49" t="s">
         <v>5</v>
       </c>
@@ -7866,7 +7866,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
@@ -7923,7 +7923,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +7980,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="77"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
@@ -8151,7 +8151,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="49" t="s">
         <v>11</v>
       </c>
@@ -8208,7 +8208,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="49" t="s">
         <v>12</v>
       </c>
@@ -8265,7 +8265,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="49" t="s">
         <v>13</v>
       </c>
@@ -8322,7 +8322,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="49" t="s">
         <v>14</v>
       </c>
@@ -8379,7 +8379,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="79" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="57" t="s">
@@ -8495,7 +8495,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="57" t="s">
         <v>1</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="57" t="s">
         <v>2</v>
       </c>
@@ -8609,7 +8609,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="57" t="s">
         <v>3</v>
       </c>
@@ -8666,7 +8666,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="57" t="s">
         <v>4</v>
       </c>
@@ -8723,7 +8723,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="57" t="s">
         <v>5</v>
       </c>
@@ -8780,7 +8780,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="57" t="s">
         <v>6</v>
       </c>
@@ -8837,7 +8837,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="57" t="s">
         <v>7</v>
       </c>
@@ -8894,7 +8894,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="77"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="57" t="s">
         <v>8</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="57" t="s">
         <v>9</v>
       </c>
@@ -9008,7 +9008,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="57" t="s">
         <v>10</v>
       </c>
@@ -9065,7 +9065,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="57" t="s">
         <v>11</v>
       </c>
@@ -9122,7 +9122,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="57" t="s">
         <v>12</v>
       </c>
@@ -9179,7 +9179,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
@@ -9236,7 +9236,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="57" t="s">
         <v>14</v>
       </c>
@@ -9293,7 +9293,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="57" t="s">
         <v>15</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -9409,7 +9409,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="58" t="s">
         <v>1</v>
       </c>
@@ -9466,7 +9466,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="77"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="58" t="s">
         <v>2</v>
       </c>
@@ -9523,7 +9523,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="58" t="s">
         <v>3</v>
       </c>
@@ -9580,7 +9580,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="58" t="s">
         <v>4</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="58" t="s">
         <v>5</v>
       </c>
@@ -9694,7 +9694,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="58" t="s">
         <v>6</v>
       </c>
@@ -9751,7 +9751,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="58" t="s">
         <v>7</v>
       </c>
@@ -9808,7 +9808,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="58" t="s">
         <v>8</v>
       </c>
@@ -9865,7 +9865,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="77"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="58" t="s">
         <v>9</v>
       </c>
@@ -9922,7 +9922,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="77"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="58" t="s">
         <v>10</v>
       </c>
@@ -9979,7 +9979,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10036,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="77"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="58" t="s">
         <v>12</v>
       </c>
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="77"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="58" t="s">
         <v>13</v>
       </c>
@@ -10150,7 +10150,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="58" t="s">
         <v>14</v>
       </c>
@@ -10207,7 +10207,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="58" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10264,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="69" t="s">
@@ -10323,7 +10323,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="77"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="69" t="s">
         <v>1</v>
       </c>
@@ -10380,7 +10380,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="77"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="69" t="s">
         <v>2</v>
       </c>
@@ -10437,7 +10437,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="69" t="s">
         <v>3</v>
       </c>
@@ -10494,7 +10494,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="77"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="69" t="s">
         <v>4</v>
       </c>
@@ -10551,7 +10551,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="69" t="s">
         <v>5</v>
       </c>
@@ -10608,7 +10608,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="77"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="69" t="s">
         <v>6</v>
       </c>
@@ -10665,7 +10665,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="77"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="69" t="s">
         <v>7</v>
       </c>
@@ -10722,7 +10722,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="77"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="69" t="s">
         <v>8</v>
       </c>
@@ -10779,7 +10779,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="77"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="69" t="s">
         <v>9</v>
       </c>
@@ -10836,7 +10836,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="69" t="s">
         <v>10</v>
       </c>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="69" t="s">
         <v>11</v>
       </c>
@@ -10950,7 +10950,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="77"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="69" t="s">
         <v>12</v>
       </c>
@@ -11007,7 +11007,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="77"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="69" t="s">
         <v>13</v>
       </c>
@@ -11064,7 +11064,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="69" t="s">
         <v>14</v>
       </c>
@@ -11121,7 +11121,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="69" t="s">
         <v>15</v>
       </c>
@@ -11178,7 +11178,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="79" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="69" t="s">
@@ -11237,7 +11237,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="77"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="69" t="s">
         <v>1</v>
       </c>
@@ -11294,7 +11294,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="77"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="69" t="s">
         <v>2</v>
       </c>
@@ -11351,7 +11351,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="69" t="s">
         <v>3</v>
       </c>
@@ -11408,7 +11408,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="77"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="69" t="s">
         <v>4</v>
       </c>
@@ -11465,7 +11465,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="77"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="69" t="s">
         <v>5</v>
       </c>
@@ -11522,7 +11522,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="77"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="69" t="s">
         <v>6</v>
       </c>
@@ -11579,7 +11579,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="69" t="s">
         <v>7</v>
       </c>
@@ -11636,7 +11636,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="77"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="69" t="s">
         <v>8</v>
       </c>
@@ -11693,7 +11693,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="77"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="69" t="s">
         <v>9</v>
       </c>
@@ -11750,7 +11750,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="77"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="69" t="s">
         <v>10</v>
       </c>
@@ -11807,7 +11807,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="77"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="69" t="s">
         <v>11</v>
       </c>
@@ -11864,7 +11864,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="77"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="69" t="s">
         <v>12</v>
       </c>
@@ -11921,7 +11921,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="77"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="69" t="s">
         <v>13</v>
       </c>
@@ -11978,7 +11978,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="77"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="69" t="s">
         <v>14</v>
       </c>
@@ -12035,7 +12035,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="77"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="69" t="s">
         <v>15</v>
       </c>
@@ -12173,7 +12173,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="49" t="s">
@@ -12232,7 +12232,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
@@ -12289,7 +12289,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
@@ -12346,7 +12346,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
@@ -12403,7 +12403,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="49" t="s">
         <v>4</v>
       </c>
@@ -12460,7 +12460,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="49" t="s">
         <v>5</v>
       </c>
@@ -12517,7 +12517,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
@@ -12574,7 +12574,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="49" t="s">
         <v>7</v>
       </c>
@@ -12631,7 +12631,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="77"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="49" t="s">
         <v>8</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
@@ -12745,7 +12745,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
@@ -12802,7 +12802,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="49" t="s">
         <v>11</v>
       </c>
@@ -12859,7 +12859,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="49" t="s">
         <v>12</v>
       </c>
@@ -12916,7 +12916,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="49" t="s">
         <v>13</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="49" t="s">
         <v>14</v>
       </c>
@@ -13030,7 +13030,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="49" t="s">
         <v>15</v>
       </c>
@@ -13087,7 +13087,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="79" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="57" t="s">
@@ -13146,7 +13146,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="57" t="s">
         <v>1</v>
       </c>
@@ -13203,7 +13203,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="57" t="s">
         <v>2</v>
       </c>
@@ -13260,7 +13260,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="57" t="s">
         <v>3</v>
       </c>
@@ -13317,7 +13317,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="77"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="57" t="s">
         <v>4</v>
       </c>
@@ -13374,7 +13374,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="77"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="57" t="s">
         <v>5</v>
       </c>
@@ -13431,7 +13431,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
+      <c r="A24" s="79"/>
       <c r="B24" s="57" t="s">
         <v>6</v>
       </c>
@@ -13488,7 +13488,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="77"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="57" t="s">
         <v>7</v>
       </c>
@@ -13545,7 +13545,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="77"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="57" t="s">
         <v>8</v>
       </c>
@@ -13602,7 +13602,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="77"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="57" t="s">
         <v>9</v>
       </c>
@@ -13659,7 +13659,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="77"/>
+      <c r="A28" s="79"/>
       <c r="B28" s="57" t="s">
         <v>10</v>
       </c>
@@ -13716,7 +13716,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="57" t="s">
         <v>11</v>
       </c>
@@ -13773,7 +13773,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="77"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="57" t="s">
         <v>12</v>
       </c>
@@ -13830,7 +13830,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="77"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
@@ -13887,7 +13887,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32" s="77"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="57" t="s">
         <v>14</v>
       </c>
@@ -13944,7 +13944,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33" s="77"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="57" t="s">
         <v>15</v>
       </c>
@@ -14001,7 +14001,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -14060,7 +14060,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35" s="77"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="58" t="s">
         <v>1</v>
       </c>
@@ -14117,7 +14117,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36" s="77"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="58" t="s">
         <v>2</v>
       </c>
@@ -14174,7 +14174,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="77"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="58" t="s">
         <v>3</v>
       </c>
@@ -14231,7 +14231,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="77"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="58" t="s">
         <v>4</v>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="58" t="s">
         <v>5</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="58" t="s">
         <v>6</v>
       </c>
@@ -14402,7 +14402,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
+      <c r="A41" s="79"/>
       <c r="B41" s="58" t="s">
         <v>7</v>
       </c>
@@ -14459,7 +14459,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="58" t="s">
         <v>8</v>
       </c>
@@ -14516,7 +14516,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43" s="77"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="58" t="s">
         <v>9</v>
       </c>
@@ -14573,7 +14573,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="77"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="58" t="s">
         <v>10</v>
       </c>
@@ -14630,7 +14630,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="77"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="58" t="s">
         <v>11</v>
       </c>
@@ -14687,7 +14687,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="77"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="58" t="s">
         <v>12</v>
       </c>
@@ -14744,7 +14744,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47" s="77"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="58" t="s">
         <v>13</v>
       </c>
@@ -14801,7 +14801,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="58" t="s">
         <v>14</v>
       </c>
@@ -14858,7 +14858,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="77"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="58" t="s">
         <v>15</v>
       </c>
@@ -14915,7 +14915,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="69" t="s">
@@ -14974,7 +14974,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" s="77"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="69" t="s">
         <v>1</v>
       </c>
@@ -15031,7 +15031,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="77"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="69" t="s">
         <v>2</v>
       </c>
@@ -15088,7 +15088,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="77"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="69" t="s">
         <v>3</v>
       </c>
@@ -15145,7 +15145,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" s="77"/>
+      <c r="A54" s="79"/>
       <c r="B54" s="69" t="s">
         <v>4</v>
       </c>
@@ -15202,7 +15202,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" s="77"/>
+      <c r="A55" s="79"/>
       <c r="B55" s="69" t="s">
         <v>5</v>
       </c>
@@ -15259,7 +15259,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" s="77"/>
+      <c r="A56" s="79"/>
       <c r="B56" s="69" t="s">
         <v>6</v>
       </c>
@@ -15316,7 +15316,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" s="77"/>
+      <c r="A57" s="79"/>
       <c r="B57" s="69" t="s">
         <v>7</v>
       </c>
@@ -15373,7 +15373,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" s="77"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="69" t="s">
         <v>8</v>
       </c>
@@ -15430,7 +15430,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A59" s="77"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="69" t="s">
         <v>9</v>
       </c>
@@ -15487,7 +15487,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A60" s="77"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="69" t="s">
         <v>10</v>
       </c>
@@ -15544,7 +15544,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A61" s="77"/>
+      <c r="A61" s="79"/>
       <c r="B61" s="69" t="s">
         <v>11</v>
       </c>
@@ -15601,7 +15601,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A62" s="77"/>
+      <c r="A62" s="79"/>
       <c r="B62" s="69" t="s">
         <v>12</v>
       </c>
@@ -15658,7 +15658,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="77"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="69" t="s">
         <v>13</v>
       </c>
@@ -15715,7 +15715,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A64" s="77"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="69" t="s">
         <v>14</v>
       </c>
@@ -15772,7 +15772,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A65" s="77"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="69" t="s">
         <v>15</v>
       </c>
@@ -15829,7 +15829,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="77" t="s">
+      <c r="A66" s="79" t="s">
         <v>122</v>
       </c>
       <c r="B66" s="69" t="s">
@@ -15888,7 +15888,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A67" s="77"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="69" t="s">
         <v>1</v>
       </c>
@@ -15945,7 +15945,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A68" s="77"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="69" t="s">
         <v>2</v>
       </c>
@@ -16002,7 +16002,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A69" s="77"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="69" t="s">
         <v>3</v>
       </c>
@@ -16059,7 +16059,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A70" s="77"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="69" t="s">
         <v>4</v>
       </c>
@@ -16116,7 +16116,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A71" s="77"/>
+      <c r="A71" s="79"/>
       <c r="B71" s="69" t="s">
         <v>5</v>
       </c>
@@ -16173,7 +16173,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A72" s="77"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="69" t="s">
         <v>6</v>
       </c>
@@ -16230,7 +16230,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="77"/>
+      <c r="A73" s="79"/>
       <c r="B73" s="69" t="s">
         <v>7</v>
       </c>
@@ -16287,7 +16287,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A74" s="77"/>
+      <c r="A74" s="79"/>
       <c r="B74" s="69" t="s">
         <v>8</v>
       </c>
@@ -16344,7 +16344,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A75" s="77"/>
+      <c r="A75" s="79"/>
       <c r="B75" s="69" t="s">
         <v>9</v>
       </c>
@@ -16401,7 +16401,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A76" s="77"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="69" t="s">
         <v>10</v>
       </c>
@@ -16458,7 +16458,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A77" s="77"/>
+      <c r="A77" s="79"/>
       <c r="B77" s="69" t="s">
         <v>11</v>
       </c>
@@ -16515,7 +16515,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A78" s="77"/>
+      <c r="A78" s="79"/>
       <c r="B78" s="69" t="s">
         <v>12</v>
       </c>
@@ -16572,7 +16572,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A79" s="77"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="69" t="s">
         <v>13</v>
       </c>
@@ -16629,7 +16629,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A80" s="77"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="69" t="s">
         <v>14</v>
       </c>
@@ -16686,7 +16686,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A81" s="77"/>
+      <c r="A81" s="79"/>
       <c r="B81" s="69" t="s">
         <v>15</v>
       </c>
@@ -16841,22 +16841,22 @@
       <c r="A4" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="77">
         <v>28.02338920169473</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="77">
         <v>34.255584545710846</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="77">
         <v>15.467877022565306</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="77">
         <v>7.4177164100097066</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="77">
         <v>7.4177164100097066</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="77">
         <v>7.4177164100097066</v>
       </c>
       <c r="I4" s="43"/>
@@ -16869,22 +16869,22 @@
       <c r="A5" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="77">
         <v>0.33869303115787469</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="77">
         <v>0.33480292789812693</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="77">
         <v>0.1426159488940992</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="77">
         <v>6.1296030683299724E-2</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="77">
         <v>6.1296030683299724E-2</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="77">
         <v>6.1296030683299724E-2</v>
       </c>
       <c r="I5" s="43"/>
@@ -16931,8 +16931,8 @@
       <c r="H10" s="43"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="B13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -17877,7 +17877,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="82" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -17902,7 +17902,7 @@
       <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="50" t="s">
         <v>86</v>
       </c>
@@ -17921,7 +17921,7 @@
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="84" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="60" t="s">
@@ -17946,7 +17946,7 @@
       <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="80"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="62" t="s">
         <v>86</v>
       </c>
@@ -17965,7 +17965,7 @@
       <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="82" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="45" t="s">
@@ -17990,7 +17990,7 @@
       <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="50" t="s">
         <v>86</v>
       </c>
@@ -18009,7 +18009,7 @@
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="84" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -18034,7 +18034,7 @@
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="62" t="s">
         <v>86</v>
       </c>
@@ -18053,7 +18053,7 @@
       <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="82" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="45" t="s">
@@ -18078,7 +18078,7 @@
       <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="79"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="50" t="s">
         <v>86</v>
       </c>
@@ -18114,8 +18114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18177,7 +18177,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -18215,7 +18215,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="35" t="s">
         <v>69</v>
       </c>
@@ -18251,7 +18251,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="82"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="35" t="s">
         <v>70</v>
       </c>
@@ -18287,7 +18287,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="35" t="s">
         <v>71</v>
       </c>
@@ -18323,7 +18323,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="35" t="s">
         <v>72</v>
       </c>
@@ -18359,7 +18359,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="82"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="35" t="s">
         <v>73</v>
       </c>
@@ -18395,7 +18395,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="82"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="35" t="s">
         <v>95</v>
       </c>
@@ -18428,7 +18428,7 @@
       <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="82"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="35" t="s">
         <v>97</v>
       </c>
@@ -18459,7 +18459,7 @@
       <c r="M9" s="53"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="27" t="s">
         <v>99</v>
       </c>
@@ -18490,7 +18490,7 @@
       <c r="M10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="88" t="s">
         <v>101</v>
       </c>
       <c r="B11" t="s">
@@ -18526,7 +18526,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="85"/>
+      <c r="A12" s="89"/>
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -18560,7 +18560,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="85"/>
+      <c r="A13" s="89"/>
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -18594,7 +18594,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="85"/>
+      <c r="A14" s="89"/>
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -18628,7 +18628,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="85"/>
+      <c r="A15" s="89"/>
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -18659,7 +18659,7 @@
       <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="85"/>
+      <c r="A16" s="89"/>
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -18688,7 +18688,7 @@
       <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="86"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="64" t="s">
         <v>73</v>
       </c>
@@ -18719,7 +18719,7 @@
       <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="85" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -18757,7 +18757,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="82"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="35" t="s">
         <v>69</v>
       </c>
@@ -18793,7 +18793,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="82"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="35" t="s">
         <v>70</v>
       </c>
@@ -18829,7 +18829,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="82"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
@@ -18865,7 +18865,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="82"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -18901,7 +18901,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="35" t="s">
         <v>95</v>
       </c>
@@ -18934,7 +18934,7 @@
       <c r="M23" s="53"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="82"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="35" t="s">
         <v>73</v>
       </c>
@@ -18965,7 +18965,7 @@
       <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="83"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="27" t="s">
         <v>113</v>
       </c>
@@ -18996,7 +18996,7 @@
       <c r="M25" s="54"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="88" t="s">
         <v>115</v>
       </c>
       <c r="B26" t="s">
@@ -19032,7 +19032,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="85"/>
+      <c r="A27" s="89"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
@@ -19066,7 +19066,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="85"/>
+      <c r="A28" s="89"/>
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -19100,7 +19100,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="85"/>
+      <c r="A29" s="89"/>
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -19134,7 +19134,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="85"/>
+      <c r="A30" s="89"/>
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -19168,7 +19168,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="85"/>
+      <c r="A31" s="89"/>
       <c r="B31" t="s">
         <v>73</v>
       </c>
@@ -19202,7 +19202,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="85"/>
+      <c r="A32" s="89"/>
       <c r="B32" t="s">
         <v>95</v>
       </c>
@@ -19233,7 +19233,7 @@
       <c r="M32" s="68"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="85"/>
+      <c r="A33" s="89"/>
       <c r="B33" t="s">
         <v>113</v>
       </c>
@@ -19262,7 +19262,7 @@
       <c r="M33" s="68"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="86"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="64" t="s">
         <v>121</v>
       </c>
@@ -19289,11 +19289,11 @@
       </c>
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
-      <c r="L34" s="88"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="62"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="85" t="s">
         <v>122</v>
       </c>
       <c r="B35" s="26" t="s">
@@ -19331,7 +19331,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="82"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="35" t="s">
         <v>69</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="37">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="E36" s="36">
         <v>1</v>
@@ -19367,7 +19367,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="82"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="35" t="s">
         <v>70</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>114</v>
       </c>
       <c r="D37" s="37">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="39">
         <v>1</v>
@@ -19403,7 +19403,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="82"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="35" t="s">
         <v>71</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>124</v>
       </c>
       <c r="D38" s="37">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E38" s="36">
         <v>1</v>
@@ -19439,7 +19439,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="82"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="35" t="s">
         <v>95</v>
       </c>
@@ -19447,7 +19447,7 @@
         <v>125</v>
       </c>
       <c r="D39" s="38">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="E39" s="36">
         <v>1</v>
@@ -19475,7 +19475,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="82"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="35" t="s">
         <v>97</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="38">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="E40" s="36">
         <v>1</v>
@@ -19511,7 +19511,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="82"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="35" t="s">
         <v>99</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>127</v>
       </c>
       <c r="D41" s="38">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E41" s="36">
         <v>1</v>
@@ -19544,7 +19544,7 @@
       <c r="M41" s="53"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="82"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="35" t="s">
         <v>73</v>
       </c>
@@ -19575,7 +19575,7 @@
       <c r="M42" s="53"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="83"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="27" t="s">
         <v>113</v>
       </c>
@@ -19623,8 +19623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19991,11 +19991,11 @@
         <v>122</v>
       </c>
       <c r="B6" s="2">
-        <v>43891</v>
+        <v>43852</v>
       </c>
       <c r="C6" s="2">
         <f>B6+400</f>
-        <v>44291</v>
+        <v>44252</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -20004,7 +20004,7 @@
         <v>100000</v>
       </c>
       <c r="F6">
-        <v>16.600000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -20040,7 +20040,7 @@
         <v>10000</v>
       </c>
       <c r="S6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>1</v>

--- a/data/input_data_US_group3.xlsx
+++ b/data/input_data_US_group3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F78EA48-0313-4747-A5F0-D727B6269C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7320390-4993-42B2-872F-50C73460B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2786,16 +2786,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20040,7 +20040,7 @@
         <v>10000</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <v>1</v>

--- a/data/input_data_US_group3.xlsx
+++ b/data/input_data_US_group3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7320390-4993-42B2-872F-50C73460B2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426196-FD2C-4DBD-A8A9-AB723A350730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -2786,16 +2786,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18114,8 +18114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19375,7 +19375,7 @@
         <v>114</v>
       </c>
       <c r="D37" s="37">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="E37" s="39">
         <v>1</v>
@@ -19447,7 +19447,7 @@
         <v>125</v>
       </c>
       <c r="D39" s="38">
-        <v>0.85</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E39" s="36">
         <v>1</v>
@@ -19483,7 +19483,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="38">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E40" s="36">
         <v>1</v>
@@ -19519,7 +19519,7 @@
         <v>127</v>
       </c>
       <c r="D41" s="38">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E41" s="36">
         <v>1</v>
@@ -19546,13 +19546,13 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="86"/>
       <c r="B42" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="38">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="E42" s="36">
         <v>1</v>
@@ -19577,13 +19577,13 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="87"/>
       <c r="B43" s="27" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="40">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E43" s="76">
         <v>1</v>
@@ -19623,7 +19623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -20040,7 +20040,7 @@
         <v>10000</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>1</v>

--- a/data/input_data_US_group3.xlsx
+++ b/data/input_data_US_group3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A426196-FD2C-4DBD-A8A9-AB723A350730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32265414-1C13-4D0F-9ED7-C0AD92C08ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -2786,16 +2786,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18114,8 +18114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19411,7 +19411,7 @@
         <v>124</v>
       </c>
       <c r="D38" s="37">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="E38" s="36">
         <v>1</v>
@@ -19447,7 +19447,7 @@
         <v>125</v>
       </c>
       <c r="D39" s="38">
-        <v>0.65600000000000003</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E39" s="36">
         <v>1</v>
@@ -19483,7 +19483,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="38">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="E40" s="36">
         <v>1</v>
@@ -19519,7 +19519,7 @@
         <v>127</v>
       </c>
       <c r="D41" s="38">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="E41" s="36">
         <v>1</v>
@@ -19623,8 +19623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19991,11 +19991,11 @@
         <v>122</v>
       </c>
       <c r="B6" s="2">
-        <v>43852</v>
+        <v>43891</v>
       </c>
       <c r="C6" s="2">
         <f>B6+400</f>
-        <v>44252</v>
+        <v>44291</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -20037,10 +20037,10 @@
         <v>173</v>
       </c>
       <c r="Q6">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>1</v>
